--- a/Resources/RESOURCES.xlsx
+++ b/Resources/RESOURCES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO_PC\WorkBot_Computer_Team\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE04BC-2044-4357-8CE1-15BFD54086B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6099D4E5-6EED-4E72-881E-4F2F3B0A389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{945ECBFF-16E3-4816-9B56-A05CB55A3C6E}"/>
+    <workbookView xWindow="2370" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{945ECBFF-16E3-4816-9B56-A05CB55A3C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>DATA SCIENCE</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Plotly</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/using-plotly-for-interactive-data-visualization-in-python/</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD49C07-5DA2-436B-9E43-D08B554EB315}">
-  <dimension ref="B5:D20"/>
+  <dimension ref="B5:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +567,18 @@
         <v>15</v>
       </c>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
